--- a/Data/Modeling Stage/Feature Selection/R_Gonz_feature_selection_Date_threshold_33_no_test.xlsx
+++ b/Data/Modeling Stage/Feature Selection/R_Gonz_feature_selection_Date_threshold_33_no_test.xlsx
@@ -107,30 +107,33 @@
     <t>Clicks on course</t>
   </si>
   <si>
+    <t>Clicks on forum</t>
+  </si>
+  <si>
+    <t>Assignments viewed</t>
+  </si>
+  <si>
     <t>Start of Session 3 (%)</t>
   </si>
   <si>
-    <t>Clicks on forum</t>
-  </si>
-  <si>
-    <t>Assignments viewed</t>
-  </si>
-  <si>
     <t>Start of Session 4 (%)</t>
   </si>
   <si>
+    <t>Start of Session 5 (%)</t>
+  </si>
+  <si>
+    <t>Forum posts</t>
+  </si>
+  <si>
+    <t>Start of Session 6 (%)</t>
+  </si>
+  <si>
+    <t>Links viewed</t>
+  </si>
+  <si>
     <t>Start of Session 7 (%)</t>
   </si>
   <si>
-    <t>Start of Session 5 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 6 (%)</t>
-  </si>
-  <si>
-    <t>Forum posts</t>
-  </si>
-  <si>
     <t>Files downloaded</t>
   </si>
   <si>
@@ -143,16 +146,13 @@
     <t>Discussions viewed</t>
   </si>
   <si>
+    <t>Assignments submitted</t>
+  </si>
+  <si>
+    <t>Number of sessions</t>
+  </si>
+  <si>
     <t>Start of Session 10 (%)</t>
-  </si>
-  <si>
-    <t>Assignments submitted</t>
-  </si>
-  <si>
-    <t>Number of sessions</t>
-  </si>
-  <si>
-    <t>Links viewed</t>
   </si>
 </sst>
 </file>
@@ -1193,7 +1193,7 @@
         <v>30</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>32</v>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -1324,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1359,13 +1359,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -1455,13 +1455,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -1484,10 +1484,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -1548,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="C33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -1583,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
@@ -1601,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2035,7 +2035,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -2044,10 +2044,10 @@
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -2131,7 +2131,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -2163,7 +2163,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -2195,7 +2195,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -2227,39 +2227,39 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -2291,7 +2291,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -2323,10 +2323,10 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
@@ -2335,10 +2335,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -2350,12 +2350,12 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
@@ -2387,16 +2387,16 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -2419,16 +2419,16 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -2451,16 +2451,16 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -2469,13 +2469,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>3</v>
@@ -2483,7 +2483,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -2492,13 +2492,13 @@
         <v>1</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -2515,7 +2515,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2547,7 +2547,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2579,7 +2579,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -2588,13 +2588,13 @@
         <v>1</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -2611,7 +2611,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -2638,12 +2638,12 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -2707,16 +2707,16 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -2739,7 +2739,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2771,7 +2771,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -2835,7 +2835,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B36" t="b">
         <v>0</v>
@@ -2867,7 +2867,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37" t="b">
         <v>0</v>
